--- a/neue_testergebnisse.xlsx
+++ b/neue_testergebnisse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="5928" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>Feature</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>0.630</t>
+  </si>
+  <si>
+    <t>10xdown, alle</t>
+  </si>
+  <si>
+    <t>0.624</t>
   </si>
 </sst>
 </file>
@@ -588,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1050,7 @@
       <c r="F31" s="2">
         <v>1419</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H31" t="s">
@@ -1061,7 +1067,7 @@
       <c r="F32" s="2">
         <v>13172</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1083,7 +1089,7 @@
       <c r="F34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1091,9 +1097,15 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="2">
+        <v>923597</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
@@ -1113,59 +1125,59 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>

--- a/neue_testergebnisse.xlsx
+++ b/neue_testergebnisse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5928" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="6876" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>Feature</t>
   </si>
@@ -88,9 +88,6 @@
     <t>gbm</t>
   </si>
   <si>
-    <t>0.518</t>
-  </si>
-  <si>
     <t>filtered average</t>
   </si>
   <si>
@@ -115,45 +112,27 @@
     <t>0.707</t>
   </si>
   <si>
-    <t>0.595</t>
-  </si>
-  <si>
     <t>0.582</t>
   </si>
   <si>
     <t>channel 39</t>
   </si>
   <si>
-    <t>0.609</t>
-  </si>
-  <si>
     <t>0.742</t>
   </si>
   <si>
-    <t>0.639</t>
-  </si>
-  <si>
     <t>svm</t>
   </si>
   <si>
     <t>0.598</t>
   </si>
   <si>
-    <t>0.647</t>
-  </si>
-  <si>
     <t>channel 46</t>
   </si>
   <si>
-    <t>0.697</t>
-  </si>
-  <si>
     <t>0.597</t>
   </si>
   <si>
-    <t>0.702</t>
-  </si>
-  <si>
     <t>channel 39, CP2</t>
   </si>
   <si>
@@ -163,9 +142,6 @@
     <t>0.601</t>
   </si>
   <si>
-    <t>0.678</t>
-  </si>
-  <si>
     <t>0.674</t>
   </si>
   <si>
@@ -187,9 +163,6 @@
     <t>5xdown, n200</t>
   </si>
   <si>
-    <t>0.623</t>
-  </si>
-  <si>
     <t>5xdown, n500</t>
   </si>
   <si>
@@ -202,16 +175,49 @@
     <t>0.489</t>
   </si>
   <si>
-    <t>0.636</t>
-  </si>
-  <si>
-    <t>0.630</t>
-  </si>
-  <si>
     <t>10xdown, alle</t>
   </si>
   <si>
-    <t>0.624</t>
+    <t>rf, entropy</t>
+  </si>
+  <si>
+    <t>0.670</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.653</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.564</t>
+  </si>
+  <si>
+    <t>0.690</t>
   </si>
 </sst>
 </file>
@@ -227,12 +233,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -275,19 +293,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -592,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N56"/>
+  <dimension ref="B3:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +650,7 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -635,15 +659,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -651,11 +675,11 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
@@ -671,11 +695,11 @@
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>1496</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="K6" t="s">
         <v>7</v>
@@ -686,13 +710,13 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -700,17 +724,17 @@
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -719,10 +743,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
@@ -732,11 +756,11 @@
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>1454</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>38</v>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -744,8 +768,8 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
       <c r="K11" t="s">
         <v>15</v>
       </c>
@@ -755,7 +779,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -763,10 +787,10 @@
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>1812</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -780,8 +804,8 @@
       <c r="F13" s="3">
         <v>3378</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
@@ -795,13 +819,13 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
@@ -809,17 +833,17 @@
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>1772</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>34</v>
+      <c r="G15" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
@@ -827,11 +851,11 @@
       <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>1840</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>36</v>
+      <c r="G16" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="J16" t="s">
         <v>10</v>
@@ -850,10 +874,10 @@
       <c r="F17" s="3">
         <v>3486</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="5"/>
+      <c r="G17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="4"/>
       <c r="K17" t="s">
         <v>12</v>
       </c>
@@ -863,8 +887,8 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
       <c r="K18" t="s">
         <v>13</v>
       </c>
@@ -874,14 +898,14 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="7"/>
       <c r="K19" t="s">
         <v>14</v>
       </c>
@@ -892,14 +916,14 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
@@ -907,14 +931,14 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -922,11 +946,11 @@
       <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>45</v>
+      <c r="F23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
@@ -936,17 +960,17 @@
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="2">
         <v>1165</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>43</v>
+      <c r="G24" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
@@ -954,11 +978,11 @@
       <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
+      <c r="F25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -968,129 +992,128 @@
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="2">
         <v>1168</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>47</v>
+      <c r="G26" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7">
+        <v>43</v>
+      </c>
+      <c r="F27" s="2">
         <v>1749</v>
       </c>
-      <c r="G27" t="s">
-        <v>52</v>
+      <c r="G27" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>23</v>
+      <c r="C28" s="1"/>
+      <c r="D28" t="s">
+        <v>54</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="7">
-        <v>1788</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="3"/>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1156</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1964</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="1"/>
-      <c r="N30" s="3"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2">
-        <v>1419</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" t="s">
-        <v>59</v>
-      </c>
+        <v>1788</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="2">
-        <v>13172</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1156</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1419</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
@@ -1098,13 +1121,13 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F35" s="2">
-        <v>923597</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>65</v>
+        <v>13172</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
@@ -1113,79 +1136,83 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
-      <c r="N36" s="3"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="2">
+        <v>923597</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="7"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
@@ -1193,15 +1220,23 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
@@ -1209,7 +1244,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
@@ -1217,7 +1252,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
@@ -1225,7 +1260,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
@@ -1233,7 +1268,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
@@ -1241,7 +1276,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
@@ -1249,7 +1284,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
@@ -1257,7 +1292,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
@@ -1265,7 +1300,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
@@ -1273,7 +1308,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
@@ -1299,6 +1334,30 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/neue_testergebnisse.xlsx
+++ b/neue_testergebnisse.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\Vorlesungen\Semester12\Neural Engineering\Project\Neural-Engineering\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="948" yWindow="0" windowWidth="16380" windowHeight="8196"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -209,7 +213,7 @@
     <t>bad generalization, private scores are 56-57</t>
   </si>
   <si>
-    <t> 0.354</t>
+    <t>0.354</t>
   </si>
   <si>
     <t>0.518</t>
@@ -230,33 +234,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,124 +253,357 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.88259109311741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4372469635628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2186234817814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.21862348178138"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4412955465587"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2186234817814"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.4412955465587"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.11336032388664"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.88259109311741"/>
+    <col min="2" max="2" width="19.44140625"/>
+    <col min="3" max="3" width="18.21875"/>
+    <col min="4" max="4" width="8.21875"/>
+    <col min="5" max="5" width="13"/>
+    <col min="6" max="6" width="7.44140625"/>
+    <col min="7" max="7" width="10.21875"/>
+    <col min="8" max="8" width="13.44140625"/>
+    <col min="9" max="9" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -413,7 +631,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -432,31 +650,31 @@
       <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>1496</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -464,7 +682,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -482,7 +700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -493,39 +711,39 @@
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>1454</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -538,34 +756,34 @@
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>1812</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="6">
         <v>3378</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -573,7 +791,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -584,14 +802,14 @@
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="3">
         <v>1772</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
@@ -602,49 +820,49 @@
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>1840</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="6">
         <v>3486</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -657,11 +875,11 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -669,14 +887,14 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="7"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -684,7 +902,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
@@ -697,28 +915,28 @@
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="3">
         <v>1165</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>43</v>
@@ -729,42 +947,42 @@
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="3">
         <v>1168</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="3">
         <v>1749</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>39</v>
@@ -775,7 +993,7 @@
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="3">
         <v>1788</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -783,9 +1001,9 @@
       </c>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -794,7 +1012,7 @@
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="3">
         <v>1156</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -802,7 +1020,7 @@
       </c>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -811,7 +1029,7 @@
       <c r="G30" s="1"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>19</v>
@@ -822,31 +1040,31 @@
       <c r="E31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="7" t="n">
+      <c r="F31" s="7">
         <v>1419</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="7" t="n">
+      <c r="F32" s="7">
         <v>13172</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -854,7 +1072,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -868,21 +1086,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="7" t="n">
+      <c r="F35" s="7">
         <v>923597</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -891,7 +1109,7 @@
       <c r="G36" s="1"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -899,7 +1117,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -907,7 +1125,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>61</v>
       </c>
@@ -926,11 +1144,11 @@
       <c r="G39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -938,7 +1156,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
@@ -954,7 +1172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -962,7 +1180,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -970,7 +1188,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>61</v>
       </c>
@@ -988,7 +1206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -996,7 +1214,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1004,7 +1222,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1012,7 +1230,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1020,7 +1238,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1028,7 +1246,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1036,7 +1254,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1044,7 +1262,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1052,7 +1270,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1060,7 +1278,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1068,7 +1286,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1076,7 +1294,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1085,12 +1303,7 @@
       <c r="G56" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>